--- a/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/8/Intervalos de confianza.xlsx
+++ b/Ulatina/X - Cuatrimestre/Probabilidad y Estadistica/Semanas/8/Intervalos de confianza.xlsx
@@ -1,31 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joagui\Desktop\Escritorio\I cuatri 2021\II cuatri 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian Vargas\Documents\GitHub\LaptopToPC\Ulatina\X - Cuatrimestre\Probabilidad y Estadistica\Semanas\8\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447DCE79-FCAD-4CE1-A59A-344E830DA172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="8220"/>
+    <workbookView xWindow="-20520" yWindow="4560" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intervalos (media)" sheetId="2" r:id="rId1"/>
     <sheet name="intervalos (proporciones)" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="19">
   <si>
     <t>n=</t>
   </si>
@@ -76,14 +90,24 @@
   </si>
   <si>
     <t>lim inferior</t>
+  </si>
+  <si>
+    <t>sup</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -137,11 +161,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -170,8 +195,17 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -450,11 +484,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,11 +719,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:O10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +731,7 @@
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -711,8 +745,34 @@
       <c r="E1" s="3">
         <v>184</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3">
+        <f>J1/J2</f>
+        <v>0.4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2">
+        <f>O1/O2</f>
+        <v>0.4</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -726,16 +786,54 @@
       <c r="E2" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3">
+        <f>1-H1</f>
+        <v>0.6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2">
+        <f>1-M1</f>
+        <v>0.6</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>75</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -745,8 +843,26 @@
       <c r="D4" s="3">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -757,8 +873,27 @@
       <c r="D5" s="3">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4">
+        <f>1-H4</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -766,8 +901,21 @@
         <f>_xlfn.NORM.S.INV(D4+D5/2)</f>
         <v>1.9599639845400536</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2">
+        <f>_xlfn.NORM.S.INV(I4+I5/2)</f>
+        <v>1.9599639845400536</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -779,8 +927,29 @@
         <f>C9</f>
         <v>0.88240137175354083</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1">
+        <f>H1-(H7*(SQRT(H1*H2/H3)))</f>
+        <v>0.28912769405202582</v>
+      </c>
+      <c r="I9" s="11">
+        <f>H9</f>
+        <v>0.28912769405202582</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0.28912500000000002</v>
+      </c>
+      <c r="N9" s="11">
+        <f>M9</f>
+        <v>0.28912500000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -791,6 +960,617 @@
       <c r="D10" s="11">
         <f>C10</f>
         <v>0.95759862824645925</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1">
+        <f>H1+(H7*(SQRT(H1*H2/H3)))</f>
+        <v>0.51087230594797428</v>
+      </c>
+      <c r="I10" s="11">
+        <f>H10</f>
+        <v>0.51087230594797428</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0.51087433999999998</v>
+      </c>
+      <c r="N10" s="11">
+        <f>M10</f>
+        <v>0.51087433999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9319F16A-CDBF-4D6D-B9BB-91DA319DDF16}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="13">
+        <f>(F1/F2)</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="C1" s="13">
+        <f>(G1/F2)</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1">
+        <v>400</v>
+      </c>
+      <c r="G1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13">
+        <f>1-B1</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="C2" s="13">
+        <f>1-C1</f>
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>0.95</v>
+      </c>
+      <c r="D4">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0.70753255150000005</v>
+      </c>
+      <c r="D8" s="13">
+        <f>C8*100</f>
+        <v>70.753255150000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.75246744850000002</v>
+      </c>
+      <c r="D9" s="13">
+        <f>C9*100</f>
+        <v>75.246744849999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>99</v>
+      </c>
+      <c r="C17">
+        <v>0.99</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>95</v>
+      </c>
+      <c r="H17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0.01</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2.58</v>
+      </c>
+      <c r="G19">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>5.4053160359999998E-2</v>
+      </c>
+      <c r="C21" s="12">
+        <f>B21*100</f>
+        <v>5.4053160359999994</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>0.46420721669999998</v>
+      </c>
+      <c r="H21" s="12">
+        <f>G21*100</f>
+        <v>46.420721669999999</v>
+      </c>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>0.3459468396</v>
+      </c>
+      <c r="C22" s="13">
+        <f>B22*100</f>
+        <v>34.594683959999998</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22">
+        <v>0.73579278329999998</v>
+      </c>
+      <c r="H22" s="13">
+        <f>G22*100</f>
+        <v>73.579278329999994</v>
+      </c>
+      <c r="I22" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8570867-A197-4B22-9550-D3697B3AAC4A}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>350</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>250</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2">
+        <f>L1/L2</f>
+        <v>0.4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="2">
+        <f>R1/R2</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2">
+        <f>1-J1</f>
+        <v>0.6</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>75</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="2">
+        <f>1-P1</f>
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>263</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>75</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>0.95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>99</v>
+      </c>
+      <c r="G4">
+        <v>0.99</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="O4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0.05</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.01</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="O5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="4">
+        <f>1-P4</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="13">
+        <f>_xlfn.CONFIDENCE.NORM(C5,B2,B1)</f>
+        <v>5.8668109764521423</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <f>_xlfn.CONFIDENCE.NORM(G5,F2,F1)</f>
+        <v>8.1454874630197613E-2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="2">
+        <f>_xlfn.NORM.S.INV(Q4+Q5/2)</f>
+        <v>1.9599639845400536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13">
+        <f>B3-B7</f>
+        <v>257.13318902354786</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <f>F3-F7</f>
+        <v>2.4685451253698023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="13">
+        <f>B3+B7</f>
+        <v>268.86681097645214</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <f>F3+F7</f>
+        <v>2.6314548746301973</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0.28912500000000002</v>
+      </c>
+      <c r="K9" s="16">
+        <f>J9*100</f>
+        <v>28.912500000000001</v>
+      </c>
+      <c r="O9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="1">
+        <f>P1-(P7*(SQRT(P1*P2/P3)))</f>
+        <v>0.71095449490913398</v>
+      </c>
+      <c r="Q9" s="11">
+        <f>P9</f>
+        <v>0.71095449490913398</v>
+      </c>
+      <c r="T9" s="17">
+        <v>0.70753255150000005</v>
+      </c>
+      <c r="U9" s="13">
+        <f>T9*100</f>
+        <v>70.753255150000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.51087433999999998</v>
+      </c>
+      <c r="K10" s="16">
+        <f>J10*100</f>
+        <v>51.087434000000002</v>
+      </c>
+      <c r="O10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="1">
+        <f>P1+(P7*(SQRT(P1*P2/P3)))</f>
+        <v>0.75571217175753258</v>
+      </c>
+      <c r="Q10" s="11">
+        <f>P10</f>
+        <v>0.75571217175753258</v>
       </c>
     </row>
   </sheetData>
